--- a/biology/Botanique/Antirrhinum/Antirrhinum.xlsx
+++ b/biology/Botanique/Antirrhinum/Antirrhinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhinum (les mufliers), est un genre de plantes de la famille des Scrophulariaceae, classé depuis 2009 parmi les Plantaginaceae.
 C'est le genre du Muflier à grandes fleurs ou Gueule-de-loup (Antirrhinum majus).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre de plantes herbacées présente une fleur de type 5, zygomorphe, à pétales soudés. Cette fleur possède plusieurs lèvres et un ovaire à 2 loges.
 </t>
@@ -543,7 +557,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Antirrhinum latifolium - Muflier à larges feuilles - Présent en France
 Antirrhinum majus, - Muflier à grandes fleurs - Présent en France
@@ -597,7 +613,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Muflier est une plante modèle en génétique végétale. Les différentes variétés horticoles permettent de disposer de mutants en grand nombre.
 </t>
